--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C18878-9D3A-4402-A8DE-D57D667367A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D75D71-7DE3-433E-81DF-87C31C16052B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29010" yWindow="2235" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8250" yWindow="2490" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>索引</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>Values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉最大值限制
+只针对1类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isMaxLimit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,10 +569,10 @@
     <col min="2" max="2" width="13.875" style="13" customWidth="1"/>
     <col min="3" max="4" width="19.5" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="13" customWidth="1"/>
+    <col min="6" max="7" width="19.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -582,8 +591,11 @@
       <c r="F1" s="14" t="s">
         <v>16</v>
       </c>
+      <c r="G1" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -602,8 +614,11 @@
       <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -622,8 +637,11 @@
       <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -639,8 +657,11 @@
       <c r="F4" s="12">
         <v>1</v>
       </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -656,8 +677,11 @@
       <c r="F5" s="12">
         <v>1</v>
       </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
@@ -673,8 +697,11 @@
       <c r="F6" s="12">
         <v>1</v>
       </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>19</v>
       </c>
@@ -690,8 +717,11 @@
       <c r="F7" s="12">
         <v>1</v>
       </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
@@ -705,6 +735,9 @@
         <v>1</v>
       </c>
       <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
         <v>1</v>
       </c>
     </row>

--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D75D71-7DE3-433E-81DF-87C31C16052B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73402AF-0F99-4A7E-98C0-43EBED0D8AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="2490" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>索引</t>
   </si>
@@ -64,75 +64,128 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉最大值限制
+只针对1类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isMaxLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型对应值
+1-无
+2-开启掉落资源
+3-1-酒|好感度
+  2-武器装备|好感度
+  3-书籍|好感度
+  4-宝物|好感度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型
 1-资源
-2-箱子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型对应值
-1-无
-2-开启掉落资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稀有度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>metal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉最大值限制
-只针对1类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isMaxLimit</t>
+2-箱子
+3-赠送英雄物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv_er_hong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女儿红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shi_jing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和氏璧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he_shi_bi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuang_gu_jian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双股剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,12 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,9 +296,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,188 +601,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="13.875" style="13" customWidth="1"/>
-    <col min="3" max="4" width="19.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="7" width="19.5" style="13" customWidth="1"/>
+    <col min="1" max="1" width="19" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="11" customWidth="1"/>
+    <col min="3" max="4" width="19.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="47.75" style="11" customWidth="1"/>
+    <col min="6" max="7" width="19.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+      <c r="B10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="E10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
+      <c r="D12" s="10">
+        <v>3</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73402AF-0F99-4A7E-98C0-43EBED0D8AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B94352-C9D9-41B0-8051-508CB7A4FC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>索引</t>
   </si>
@@ -117,75 +117,153 @@
   </si>
   <si>
     <t>isMaxLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nv_er_hong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女儿红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuang_gu_jian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双股剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bao_jian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉佩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_shu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yu_pei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型
+1-资源
+2-箱子
+3-赠送英雄物品
+4-英雄装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备的随身佩剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛逼盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一件神秘的盔甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>niu_bi_kui_jia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chi_tu_ma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤兔马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布和关羽的坐骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarchSpeed:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子类型
+3-物品类型：1、酒 2、名画 3、书籍 4、宝物
+4-装备类型：1、武器 2、防具 3、坐骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备特定英雄
+和额外加成系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|0.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|0.15,2|0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龙偃月刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽的武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qing_long_yan_yu_dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BelongToHeros</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:10,Burst:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense:10,AtkSpeed:0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack:15,Burst:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型对应值
 1-无
 2-开启掉落资源
-3-1-酒|好感度
-  2-武器装备|好感度
-  3-书籍|好感度
-  4-宝物|好感度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型
-1-资源
-2-箱子
-3-赠送英雄物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nv_er_hong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女儿红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shi_jing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诗经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和氏璧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>he_shi_bi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuang_gu_jian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双股剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,30</t>
+3-好感度
+4-增加属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,22 +679,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F21" activeCellId="1" sqref="E1 F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19" style="11" customWidth="1"/>
+    <col min="1" max="1" width="31.25" style="11" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="11" customWidth="1"/>
     <col min="3" max="4" width="19.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="47.75" style="11" customWidth="1"/>
-    <col min="6" max="7" width="19.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="55.25" style="11" customWidth="1"/>
+    <col min="6" max="7" width="45.5" style="11" customWidth="1"/>
+    <col min="8" max="9" width="19.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -627,19 +706,25 @@
         <v>8</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -653,16 +738,22 @@
         <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -676,16 +767,22 @@
         <v>10</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -698,14 +795,17 @@
       <c r="D4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -718,14 +818,17 @@
       <c r="D5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -738,14 +841,17 @@
       <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
@@ -758,14 +864,17 @@
       <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
@@ -778,19 +887,22 @@
       <c r="D8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>9</v>
@@ -798,22 +910,26 @@
       <c r="D9" s="10">
         <v>3</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>36</v>
+      <c r="E9" s="10">
+        <v>2</v>
       </c>
       <c r="F9" s="10">
+        <v>10</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
         <v>3</v>
       </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>9</v>
@@ -821,22 +937,26 @@
       <c r="D10" s="10">
         <v>3</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>37</v>
+      <c r="E10" s="10">
+        <v>1</v>
       </c>
       <c r="F10" s="10">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>9</v>
@@ -844,22 +964,26 @@
       <c r="D11" s="10">
         <v>3</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>38</v>
+      <c r="E11" s="10">
+        <v>3</v>
       </c>
       <c r="F11" s="10">
+        <v>30</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>9</v>
@@ -867,13 +991,130 @@
       <c r="D12" s="10">
         <v>3</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="10">
+        <v>4</v>
+      </c>
+      <c r="F12" s="10">
+        <v>40</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <v>3</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="11">
+        <v>4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="10">
+      <c r="C14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="11">
+        <v>4</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="11">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11">
         <v>3</v>
       </c>
-      <c r="G12" s="10">
+      <c r="F15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="11">
+        <v>5</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="11">
+        <v>5</v>
+      </c>
+      <c r="I16" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B94352-C9D9-41B0-8051-508CB7A4FC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC3ECC-71BE-468E-AEEE-DC74A5741B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>索引</t>
   </si>
@@ -137,14 +137,6 @@
   </si>
   <si>
     <t>ArrayString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bao_jian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,6 +256,26 @@
 2-开启掉落资源
 3-好感度
 4-增加属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ming_hua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,442 +691,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" activeCellId="1" sqref="E1 F21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="11" customWidth="1"/>
-    <col min="3" max="4" width="19.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="55.25" style="11" customWidth="1"/>
-    <col min="6" max="7" width="45.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="19.5" style="11" customWidth="1"/>
+    <col min="1" max="2" width="31.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="11" customWidth="1"/>
+    <col min="4" max="5" width="19.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="55.25" style="11" customWidth="1"/>
+    <col min="7" max="8" width="45.5" style="11" customWidth="1"/>
+    <col min="9" max="10" width="19.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
+      <c r="B3" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
+      <c r="D3" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
       <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
       </c>
       <c r="I4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
       <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
       </c>
       <c r="I5" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
       <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
       </c>
       <c r="I6" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
       <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
       </c>
       <c r="I7" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10">
-        <v>1</v>
-      </c>
       <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
       </c>
       <c r="I8" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10">
+      <c r="E9" s="10">
         <v>3</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>10</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
         <v>3</v>
       </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="10">
+      <c r="E10" s="10">
         <v>3</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
       <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
         <v>20</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
         <v>3</v>
       </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" s="10">
-        <v>3</v>
       </c>
       <c r="E11" s="10">
         <v>3</v>
       </c>
       <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10">
         <v>30</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
         <v>3</v>
       </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10">
+      <c r="E12" s="10">
         <v>3</v>
       </c>
-      <c r="E12" s="10">
+      <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="F12" s="10">
+      <c r="G12" s="10">
         <v>40</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
         <v>3</v>
       </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="11">
         <v>4</v>
       </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>55</v>
+      <c r="F13" s="11">
+        <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="11">
+        <v>53</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="11">
         <v>4</v>
       </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="11">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="11">
+        <v>4</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="11">
-        <v>4</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="B15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="E15" s="11">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="H15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="11">
         <v>5</v>
       </c>
-      <c r="E15" s="11">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="11">
-        <v>5</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="11">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="I16" s="11">
         <v>5</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC3ECC-71BE-468E-AEEE-DC74A5741B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21BBA5B-D010-4BC3-B323-A718DA7CFD5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Excel/ItemInfo.xlsx
+++ b/Excel/ItemInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21BBA5B-D010-4BC3-B323-A718DA7CFD5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90D7385-BB5C-4810-B628-4A8DC48C7329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemInfo" sheetId="1" r:id="rId1"/>
@@ -156,14 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型
-1-资源
-2-箱子
-3-赠送英雄物品
-4-英雄装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘备的随身佩剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,6 +268,14 @@
   </si>
   <si>
     <t>名画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型
+1-资源
+2-宝箱
+3-名品
+4-装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +694,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -721,16 +721,16 @@
         <v>8</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>13</v>
@@ -744,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
@@ -756,13 +756,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>12</v>
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>2</v>
@@ -935,13 +935,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>9</v>
@@ -1064,7 +1064,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="11">
         <v>4</v>
@@ -1073,10 +1073,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="11">
         <v>4</v>
@@ -1087,16 +1087,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="11">
         <v>4</v>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="11">
         <v>4</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="11">
         <v>5</v>
@@ -1134,10 +1134,10 @@
         <v>3</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="11">
         <v>5</v>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="E16" s="11">
         <v>4</v>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="11">
         <v>5</v>
